--- a/RecyclingGame/Assets/Resources/FileResources/TrashPosition_1.xlsx
+++ b/RecyclingGame/Assets/Resources/FileResources/TrashPosition_1.xlsx
@@ -1,49 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\혜린자료\GitHub\RecyclingGame_seriousgame\RecyclingGame\Assets\Resources\FileResources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB1385-B210-482C-A9B1-717E7256E794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4800" yWindow="3735" windowWidth="16770" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="STAGE 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">순번 기록용이니 그냥 차례로 써 주시면 됩니다.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>순번 기록용이니 그냥 차례로 써 주시면 됩니다.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">정답이면 1, 정답이 아니면 0</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>정답이면 1, 정답이 아니면 0</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D1">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">전처리가 필요하면 1, 아니면 0</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>전처리가 필요하면 1, 아니면 0</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E1">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">아트 리소스 파일의 이름</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>아트 리소스 파일의 이름</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F1">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t xml:space="preserve">Up, Middle, Down 중 하나로 써 주세요(공백없게)</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Up, Middle, Down 중 하나로 써 주세요(공백없게)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G1">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t xml:space="preserve">원래는 픽셀단위로 지정할까 했지만 간격이 있는 것이니 얘가 등장하는 순서를 써 주시면 됩니다.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>원래는 픽셀단위로 지정할까 했지만 간격이 있는 것이니 얘가 등장하는 순서를 써 주시면 됩니다.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -51,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -129,38 +180,77 @@
   </si>
   <si>
     <t>BrokenLight</t>
+  </si>
+  <si>
+    <t>우유팩</t>
+  </si>
+  <si>
+    <t>MilkPack</t>
+  </si>
+  <si>
+    <t>볼펜</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>폴라로이드 사진</t>
+  </si>
+  <si>
+    <t>Polaroid</t>
+  </si>
+  <si>
+    <t>사과</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>마스크</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>종이박스</t>
+  </si>
+  <si>
+    <t>Box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -170,45 +260,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -398,23 +487,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="17.57"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,18 +529,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -457,21 +549,21 @@
         <v>9</v>
       </c>
       <c r="G2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -480,21 +572,21 @@
         <v>12</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -503,21 +595,21 @@
         <v>9</v>
       </c>
       <c r="G4" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -526,21 +618,21 @@
         <v>12</v>
       </c>
       <c r="G5" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -549,25 +641,25 @@
         <v>12</v>
       </c>
       <c r="G6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -576,25 +668,25 @@
         <v>19</v>
       </c>
       <c r="G7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -603,26 +695,26 @@
         <v>9</v>
       </c>
       <c r="G8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
-        <v>0.0</v>
+      <c r="C9" s="1">
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -631,25 +723,25 @@
         <v>19</v>
       </c>
       <c r="G9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -658,25 +750,25 @@
         <v>12</v>
       </c>
       <c r="G10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
@@ -685,25 +777,25 @@
         <v>19</v>
       </c>
       <c r="G11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -712,25 +804,25 @@
         <v>12</v>
       </c>
       <c r="G12" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -739,25 +831,25 @@
         <v>12</v>
       </c>
       <c r="G13" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
@@ -766,7 +858,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -774,18 +866,18 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -794,21 +886,21 @@
         <v>9</v>
       </c>
       <c r="G15" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>23</v>
@@ -817,21 +909,21 @@
         <v>19</v>
       </c>
       <c r="G16" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -840,21 +932,21 @@
         <v>9</v>
       </c>
       <c r="G17" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
@@ -863,21 +955,21 @@
         <v>19</v>
       </c>
       <c r="G18" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6">
-        <v>0.0</v>
+      <c r="C19" s="1">
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -886,21 +978,21 @@
         <v>9</v>
       </c>
       <c r="G19" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
@@ -909,11 +1001,289 @@
         <v>12</v>
       </c>
       <c r="G20" s="1">
-        <v>12.0</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="1">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>